--- a/data/singlet_gap.xlsx
+++ b/data/singlet_gap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiqi/Documents/hkust/research/fuzzysphere/mott_jain/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFACF90-D29C-D343-A848-F0124BDE65CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685109A-328F-0441-9D38-2E4D0F65EB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{331FF6E5-00D8-D749-A40C-D0423D26B18C}"/>
+    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{331FF6E5-00D8-D749-A40C-D0423D26B18C}"/>
   </bookViews>
   <sheets>
     <sheet name="zoomout" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +63,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF19D1E5"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -87,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE9FA1E-6BA6-3745-AC68-A0F78BA032A3}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,13 +1267,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93571191-3C5E-D847-8FFB-22C505AE9C8B}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1289,680 +1299,1190 @@
       <c r="A2">
         <v>0.08</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.10558430000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>9.8095299999999996E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>9.1863E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>8.6643700000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8.1025600000000003E-2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.10485419999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.6834799999999999E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9.0270799999999998E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8.4812100000000001E-2</v>
+        <v>8.1014500000000003E-2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1048615</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.6847900000000001E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.0287500000000007E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.4831400000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.2051299999999994E-2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.1042342</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.5691499999999999E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8.8800900000000002E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8.3107299999999995E-2</v>
+        <v>8.2029000000000005E-2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.10424650000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.5715099999999997E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.8831499999999994E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.3142900000000006E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8.3076899999999995E-2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.10372629999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.4670199999999996E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8.7461399999999995E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.1540100000000004E-2</v>
+        <v>8.3043500000000006E-2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1037411</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.4701499999999994E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.7502999999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8.1588999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>8.41026E-2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.1033322</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.3775399999999995E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8.62594E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.0120499999999997E-2</v>
+        <v>8.4057999999999994E-2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.10334690000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.3811699999999998E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.6308800000000005E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.0179100000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.5128200000000001E-2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.10305309999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.3011099999999999E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.5201299999999994E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.88576E-2</v>
+        <v>8.5072499999999995E-2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1030653</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.3049199999999999E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8.5254999999999997E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.8922099999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8.6153800000000003E-2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.1028897</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.2380299999999999E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.4292699999999998E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7.7759400000000006E-2</v>
+        <v>8.6086999999999997E-2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.1028968</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.2417299999999994E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.4347199999999997E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.7825900000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8.7179499999999993E-2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.1028424</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.1885599999999998E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.3538100000000004E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7.6832700000000004E-2</v>
+        <v>8.7101399999999995E-2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.1028419</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.1918399999999997E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.3589999999999998E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7.6896999999999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8.8205099999999995E-2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.1029109</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.1528799999999993E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8.2941399999999998E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7.6083200000000004E-2</v>
+        <v>8.8115899999999997E-2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.1029004</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.1554200000000002E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.2986900000000002E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.6141200000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8.9230799999999999E-2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.1030948</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.1311000000000003E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8.2505099999999998E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.5515100000000002E-2</v>
+        <v>8.9130399999999999E-2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.10307180000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.1326099999999993E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.2540699999999995E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.5562500000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9.0256400000000001E-2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.1033931</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.1232599999999997E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.2230999999999999E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7.5131100000000006E-2</v>
+        <v>9.01449E-2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.10335510000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.1234399999999993E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.2252900000000004E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.5163900000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9.1282100000000005E-2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.1038042</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.1293299999999994E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8.2119600000000001E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7.4932700000000005E-2</v>
+        <v>9.1159400000000002E-2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.1037491</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.1278799999999993E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.21244E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7.4946600000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>9.2307700000000006E-2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.1043265</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.1492100000000007E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8.2170499999999994E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>7.4919600000000003E-2</v>
+        <v>9.2173900000000003E-2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1042522</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.1458399999999995E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.2154699999999997E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.4910900000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9.3333299999999994E-2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.1049578</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.1827300000000001E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.2381999999999997E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>7.5090100000000007E-2</v>
+        <v>9.3188400000000005E-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1048621</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.1771699999999998E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.2342499999999999E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7.5054999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9.4358999999999998E-2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.10569580000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.2296500000000004E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.2751699999999997E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7.54412E-2</v>
+        <v>9.4202900000000006E-2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1055767</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.2216599999999996E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.2685300000000003E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7.5376200000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9.53846E-2</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.1065378</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.2896999999999993E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.3276199999999995E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>7.5968400000000005E-2</v>
+        <v>9.5217399999999994E-2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1063935</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.2790300000000006E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8.3180299999999999E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7.5870699999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9.6410300000000004E-2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.1074808</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.3625399999999998E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8.3951200000000004E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7.6666300000000007E-2</v>
+        <v>9.6231899999999995E-2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.10730969999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.3489699999999995E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.38232E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7.6532900000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9.7435900000000006E-2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.1085218</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.4477800000000001E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8.4771899999999997E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7.75285E-2</v>
+        <v>9.7246399999999997E-2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.10832219999999999</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.4311199999999998E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8.4609500000000004E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7.7357099999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9.8461499999999993E-2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.1096575</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.5450199999999999E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8.5732799999999998E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7.8547699999999998E-2</v>
+        <v>9.8260899999999998E-2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.1094281</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.5250699999999994E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8.5533999999999999E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7.8336299999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>9.9487199999999998E-2</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.1108846</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.6538100000000002E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.6828000000000002E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>7.9716099999999998E-2</v>
+        <v>9.92754E-2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.1106239</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.6304200000000006E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8.6591100000000004E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7.9463000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.1005128</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.1121997</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9.7736799999999999E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.8051199999999996E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>8.1025799999999995E-2</v>
+        <v>0.1002899</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.1119064</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.7466999999999998E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8.77748E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8.0729499999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.1015385</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.1135992</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.9041500000000005E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8.9396199999999995E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>8.2468200000000005E-2</v>
+        <v>0.1013043</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.1132725</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.8734600000000006E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8.90788E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8.2127699999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.10256410000000001</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.1150796</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.1004475</v>
-      </c>
-      <c r="D24" s="2">
-        <v>9.0856199999999998E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>8.4035100000000001E-2</v>
+        <v>0.1023188</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.1147184</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.10010230000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.0496999999999994E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8.3649600000000005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.10358970000000001</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.11663759999999999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.1019496</v>
-      </c>
-      <c r="D25" s="2">
-        <v>9.2424800000000001E-2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>8.5718199999999994E-2</v>
+        <v>0.1033333</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.116241</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.1015653</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.2022900000000005E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>8.5287000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.1046154</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.1182695</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.1035432</v>
-      </c>
-      <c r="D26" s="2">
-        <v>9.4095499999999999E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>8.7509400000000001E-2</v>
+        <v>0.1043478</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.11783689999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.103119</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.3650200000000003E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8.7032200000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.105641</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.1199721</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.1052232</v>
-      </c>
-      <c r="D27" s="2">
-        <v>9.5862000000000003E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>8.9400999999999994E-2</v>
+        <v>0.10536230000000001</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.1195027</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.1047585</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9.5372799999999994E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8.8877399999999995E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.1066667</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.121742</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.1069852</v>
-      </c>
-      <c r="D28" s="2">
-        <v>9.7718200000000005E-2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>9.1385400000000006E-2</v>
+        <v>0.10637679999999999</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.1212351</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.10647909999999999</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9.7184900000000005E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9.0815599999999996E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.1076923</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.1235759</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.1088243</v>
-      </c>
-      <c r="D29" s="2">
-        <v>9.9658200000000002E-2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>9.3455700000000003E-2</v>
+        <v>0.1073913</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.12303119999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.10827680000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>9.9080500000000002E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9.2839599999999994E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.10871790000000001</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.12547069999999999</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.11073620000000001</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.1016763</v>
-      </c>
-      <c r="E30" s="2">
-        <v>9.5605099999999998E-2</v>
+        <v>0.1084058</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.1248877</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.11014690000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.10105409999999999</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9.4943E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.1097436</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.12742339999999999</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.1127167</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.1037672</v>
-      </c>
-      <c r="E31" s="2">
-        <v>9.7827600000000001E-2</v>
+        <v>0.1094203</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.12680179999999999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.1120853</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.1031005</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.7119499999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.1107692</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.12943099999999999</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.11476169999999999</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.1059258</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.1001172</v>
+        <v>0.1104348</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.12877060000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.11408799999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.1052148</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9.9363499999999993E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.1117949</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.13149079999999999</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.1168672</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.10814749999999999</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.10246860000000001</v>
+        <v>0.1114493</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.13079109999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.11615109999999999</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.10739219999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.1016696</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.1128205</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.13359989999999999</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.1190295</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.1104276</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.10487680000000001</v>
+        <v>0.1124638</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.1328609</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.11827120000000001</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.10962810000000001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.104033</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.11384619999999999</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.13575590000000001</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.1212453</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.1127621</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.1073373</v>
+        <v>0.1134783</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.1349774</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.1204446</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.1119187</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.106449</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.1148718</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.1379563</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.1235111</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.115147</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.1098457</v>
+        <v>0.11449280000000001</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.13713810000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.1226681</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.11426</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.10891339999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.1158974</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.14019870000000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.12582389999999999</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.1175788</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.1123984</v>
+        <v>0.1155072</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.13934079999999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.1249387</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.1166484</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.1114223</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.1169231</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.14248089999999999</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.12818070000000001</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.1200541</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.1149916</v>
+        <v>0.11652170000000001</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.14158319999999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.12725339999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.11908050000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.1139722</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.1179487</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.14480080000000001</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.13057869999999999</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.1225697</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.11762209999999999</v>
+        <v>0.11753619999999999</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.1438634</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.12960949999999999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.1215533</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.11655989999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.11897439999999999</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.1471565</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.13301550000000001</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.1251227</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.12028700000000001</v>
+        <v>0.11855069999999999</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.14617930000000001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.1320045</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.1240638</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.1191823</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0.12</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.14954590000000001</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.13548850000000001</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.12771060000000001</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.12298340000000001</v>
+        <v>0.1195652</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.14852899999999999</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.1344359</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.12660950000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.12183670000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.1205797</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.15091070000000001</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.13690150000000001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.12918769999999999</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.12452050000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.1215942</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.15332280000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.1393991</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.1317962</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.1272316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.1226087</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.1557636</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.14192689999999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.134433</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.12996769999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.1236232</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.15823180000000001</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.1444829</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.137096</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.13272700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.1246377</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.1607257</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.14706540000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.1397833</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.13550760000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.12565219999999999</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.16324420000000001</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.1496729</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.1424935</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.13830790000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.12666669999999999</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.16578590000000001</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.15230379999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.14522489999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.14112659999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.12768119999999999</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.16834959999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.1549566</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.147976</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.14396200000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.1286957</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.17093430000000001</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.1576303</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.1507455</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.1468132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.12971009999999999</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.17353879999999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.1603233</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.15353220000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.1496787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.1307246</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.17616219999999999</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.1630347</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.156335</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.15255779999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.1317391</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.1788034</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.1657633</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.15915280000000001</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.15544930000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.1327536</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.1814616</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.1685082</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.16198460000000001</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.1583524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.1337681</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.18413599999999999</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.17126839999999999</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.16482939999999999</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.1612661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.1347826</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.18682579999999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.174043</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.16768659999999999</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.1641899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.1357971</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.18953</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.17683119999999999</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.17055519999999999</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.16712289999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.13681160000000001</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.19224820000000001</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.17963229999999999</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.1734347</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.17006450000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.13782610000000001</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.19497970000000001</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.18244550000000001</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.17632410000000001</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.17301430000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.13884060000000001</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.1977237</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.18527009999999999</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.1792231</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.1759714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0.13985510000000001</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.20047970000000001</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.18810550000000001</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.18213090000000001</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.1789356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0.14086960000000001</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.20324710000000001</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.19095119999999999</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.18504709999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.18190619999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0.14188410000000001</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.20602529999999999</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.1938066</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.1879711</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.18488289999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0.14289859999999999</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.208814</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.19667119999999999</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.1909024</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.18786530000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0.14391300000000001</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.21161240000000001</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.19954430000000001</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.1938407</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.19085289999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0.14492749999999999</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.21442040000000001</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.20242569999999999</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.1967855</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.1938455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0.14594199999999999</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.21723729999999999</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.20531479999999999</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.19973640000000001</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.19684270000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0.14695649999999999</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.2200628</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.20821139999999999</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.20269309999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.1998442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0.14797099999999999</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.2228965</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.21111489999999999</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.20565510000000001</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.20284969999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0.14898549999999999</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.2257382</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.21402499999999999</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.20862230000000001</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.20585909999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0.15</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.22858719999999999</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.21694140000000001</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.21159430000000001</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.2088719</v>
       </c>
     </row>
   </sheetData>

--- a/data/singlet_gap.xlsx
+++ b/data/singlet_gap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiqi/Documents/hkust/research/fuzzysphere/mott_jain/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685109A-328F-0441-9D38-2E4D0F65EB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C19027B-D320-1841-ABC0-B5F87685DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{331FF6E5-00D8-D749-A40C-D0423D26B18C}"/>
+    <workbookView xWindow="3060" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{331FF6E5-00D8-D749-A40C-D0423D26B18C}"/>
   </bookViews>
   <sheets>
     <sheet name="zoomout" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,1193 +1297,643 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.10558430000000001</v>
+        <v>4.3548200000000002E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>9.8095299999999996E-2</v>
+        <v>4.0946999999999997E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>9.1863E-2</v>
+        <v>3.7857000000000002E-2</v>
       </c>
       <c r="E2" s="3">
-        <v>8.6643700000000004E-2</v>
+        <v>3.4969199999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8.1014500000000003E-2</v>
+        <v>7.1052599999999994E-2</v>
       </c>
       <c r="B3" s="3">
-        <v>0.1048615</v>
+        <v>4.2165800000000003E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>9.6847900000000001E-2</v>
+        <v>3.90777E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>9.0287500000000007E-2</v>
+        <v>3.5770400000000001E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>8.4831400000000001E-2</v>
+        <v>3.2757000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8.2029000000000005E-2</v>
+        <v>7.2105299999999997E-2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.10424650000000001</v>
+        <v>4.1015000000000003E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>9.5715099999999997E-2</v>
+        <v>3.7430699999999997E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>8.8831499999999994E-2</v>
+        <v>3.3911900000000002E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>8.3142900000000006E-2</v>
+        <v>3.0785799999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8.3043500000000006E-2</v>
+        <v>7.3157899999999998E-2</v>
       </c>
       <c r="B5" s="3">
-        <v>0.1037411</v>
+        <v>4.0114400000000001E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>9.4701499999999994E-2</v>
+        <v>3.6033799999999998E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>8.7502999999999997E-2</v>
+        <v>3.2317499999999999E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>8.1588999999999995E-2</v>
+        <v>2.91001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>8.4057999999999994E-2</v>
+        <v>7.4210499999999999E-2</v>
       </c>
       <c r="B6" s="3">
-        <v>0.10334690000000001</v>
+        <v>3.9479500000000001E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>9.3811699999999998E-2</v>
+        <v>3.4914500000000001E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>8.6308800000000005E-2</v>
+        <v>3.1024599999999999E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>8.0179100000000003E-2</v>
+        <v>2.7747399999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8.5072499999999995E-2</v>
+        <v>7.5263200000000002E-2</v>
       </c>
       <c r="B7" s="3">
-        <v>0.1030653</v>
+        <v>3.9121299999999998E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>9.3049199999999999E-2</v>
+        <v>3.4097599999999999E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>8.5254999999999997E-2</v>
+        <v>3.0067799999999999E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>7.8922099999999995E-2</v>
+        <v>2.6772600000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8.6086999999999997E-2</v>
+        <v>7.6315800000000003E-2</v>
       </c>
       <c r="B8" s="3">
-        <v>0.1028968</v>
+        <v>3.9045900000000001E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>9.2417299999999994E-2</v>
+        <v>3.3602300000000002E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>8.4347199999999997E-2</v>
+        <v>2.9476200000000001E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>7.7825900000000003E-2</v>
+        <v>2.6212300000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8.7101399999999995E-2</v>
+        <v>7.7368400000000004E-2</v>
       </c>
       <c r="B9" s="3">
-        <v>0.1028419</v>
+        <v>3.9253400000000001E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>9.1918399999999997E-2</v>
+        <v>3.3440200000000003E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>8.3589999999999998E-2</v>
+        <v>2.92678E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>7.6896999999999993E-2</v>
+        <v>2.6088E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8.8115899999999997E-2</v>
+        <v>7.8421099999999994E-2</v>
       </c>
       <c r="B10" s="3">
-        <v>0.1029004</v>
+        <v>3.97379E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>9.1554200000000002E-2</v>
+        <v>3.3613799999999999E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>8.2986900000000002E-2</v>
+        <v>2.94472E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>7.6141200000000006E-2</v>
+        <v>2.6401000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8.9130399999999999E-2</v>
+        <v>7.9473699999999994E-2</v>
       </c>
       <c r="B11" s="3">
-        <v>0.10307180000000001</v>
+        <v>4.0488099999999999E-2</v>
       </c>
       <c r="C11" s="3">
-        <v>9.1326099999999993E-2</v>
+        <v>3.41155E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>8.2540699999999995E-2</v>
+        <v>3.0004099999999999E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>7.5562500000000005E-2</v>
+        <v>2.7131800000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9.01449E-2</v>
+        <v>8.0526299999999995E-2</v>
       </c>
       <c r="B12" s="3">
-        <v>0.10335510000000001</v>
+        <v>4.1488200000000003E-2</v>
       </c>
       <c r="C12" s="3">
-        <v>9.1234399999999993E-2</v>
+        <v>3.4929099999999998E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>8.2252900000000004E-2</v>
+        <v>3.0915100000000001E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>7.5163900000000006E-2</v>
+        <v>2.8244100000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9.1159400000000002E-2</v>
+        <v>8.1578899999999996E-2</v>
       </c>
       <c r="B13" s="3">
-        <v>0.1037491</v>
+        <v>4.2719500000000001E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>9.1278799999999993E-2</v>
+        <v>3.6031500000000001E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>8.21244E-2</v>
+        <v>3.2147299999999997E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>7.4946600000000002E-2</v>
+        <v>2.9691499999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>9.2173900000000003E-2</v>
+        <v>8.2631599999999999E-2</v>
       </c>
       <c r="B14" s="3">
-        <v>0.1042522</v>
+        <v>4.4161800000000001E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>9.1458399999999995E-2</v>
+        <v>3.7395400000000002E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>8.2154699999999997E-2</v>
+        <v>3.3663199999999997E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>7.4910900000000002E-2</v>
+        <v>3.14252E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9.3188400000000005E-2</v>
+        <v>8.36842E-2</v>
       </c>
       <c r="B15" s="3">
-        <v>0.1048621</v>
+        <v>4.5793899999999998E-2</v>
       </c>
       <c r="C15" s="3">
-        <v>9.1771699999999998E-2</v>
+        <v>3.8991900000000003E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>8.2342499999999999E-2</v>
+        <v>3.5424299999999999E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>7.5054999999999997E-2</v>
+        <v>3.3397799999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9.4202900000000006E-2</v>
+        <v>8.4736800000000001E-2</v>
       </c>
       <c r="B16" s="3">
-        <v>0.1055767</v>
+        <v>4.7595600000000002E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>9.2216599999999996E-2</v>
+        <v>4.0792200000000001E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>8.2685300000000003E-2</v>
+        <v>3.7394200000000002E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>7.5376200000000004E-2</v>
+        <v>3.5567700000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9.5217399999999994E-2</v>
+        <v>8.5789500000000005E-2</v>
       </c>
       <c r="B17" s="3">
-        <v>0.1063935</v>
+        <v>4.9547599999999997E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>9.2790300000000006E-2</v>
+        <v>4.2769399999999999E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>8.3180299999999999E-2</v>
+        <v>3.9540100000000002E-2</v>
       </c>
       <c r="E17" s="3">
-        <v>7.5870699999999999E-2</v>
+        <v>3.7899099999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9.6231899999999995E-2</v>
+        <v>8.6842100000000005E-2</v>
       </c>
       <c r="B18" s="3">
-        <v>0.10730969999999999</v>
+        <v>5.1631999999999997E-2</v>
       </c>
       <c r="C18" s="3">
-        <v>9.3489699999999995E-2</v>
+        <v>4.4899000000000001E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>8.38232E-2</v>
+        <v>4.1833500000000003E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>7.6532900000000001E-2</v>
+        <v>4.0362500000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9.7246399999999997E-2</v>
+        <v>8.7894700000000006E-2</v>
       </c>
       <c r="B19" s="3">
-        <v>0.10832219999999999</v>
+        <v>5.3832999999999999E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>9.4311199999999998E-2</v>
+        <v>4.7159399999999997E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>8.4609500000000004E-2</v>
+        <v>4.4250400000000002E-2</v>
       </c>
       <c r="E19" s="3">
-        <v>7.7357099999999998E-2</v>
+        <v>4.2933800000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9.8260899999999998E-2</v>
+        <v>8.8947399999999996E-2</v>
       </c>
       <c r="B20" s="3">
-        <v>0.1094281</v>
+        <v>5.61363E-2</v>
       </c>
       <c r="C20" s="3">
-        <v>9.5250699999999994E-2</v>
+        <v>4.9531899999999997E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>8.5533999999999999E-2</v>
+        <v>4.6770399999999997E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>7.8336299999999998E-2</v>
+        <v>4.5593799999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>9.92754E-2</v>
+        <v>0.09</v>
       </c>
       <c r="B21" s="3">
-        <v>0.1106239</v>
+        <v>5.8529100000000001E-2</v>
       </c>
       <c r="C21" s="3">
-        <v>9.6304200000000006E-2</v>
+        <v>5.2000400000000002E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>8.6591100000000004E-2</v>
+        <v>4.9377200000000003E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>7.9463000000000006E-2</v>
+        <v>4.83267E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.1002899</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.1119064</v>
-      </c>
-      <c r="C22" s="3">
-        <v>9.7466999999999998E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8.77748E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8.0729499999999996E-2</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.1013043</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.1132725</v>
-      </c>
-      <c r="C23" s="3">
-        <v>9.8734600000000006E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>8.90788E-2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8.2127699999999998E-2</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.1023188</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.1147184</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.10010230000000001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9.0496999999999994E-2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8.3649600000000005E-2</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.1033333</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.116241</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.1015653</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9.2022900000000005E-2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>8.5287000000000002E-2</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.1043478</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.11783689999999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.103119</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9.3650200000000003E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8.7032200000000004E-2</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.10536230000000001</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.1195027</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.1047585</v>
-      </c>
-      <c r="D27" s="3">
-        <v>9.5372799999999994E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>8.8877399999999995E-2</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.10637679999999999</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.1212351</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.10647909999999999</v>
-      </c>
-      <c r="D28" s="3">
-        <v>9.7184900000000005E-2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>9.0815599999999996E-2</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.1073913</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.12303119999999999</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.10827680000000001</v>
-      </c>
-      <c r="D29" s="3">
-        <v>9.9080500000000002E-2</v>
-      </c>
-      <c r="E29" s="3">
-        <v>9.2839599999999994E-2</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.1084058</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.1248877</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.11014690000000001</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.10105409999999999</v>
-      </c>
-      <c r="E30" s="3">
-        <v>9.4943E-2</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.1094203</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.12680179999999999</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.1120853</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.1031005</v>
-      </c>
-      <c r="E31" s="3">
-        <v>9.7119499999999997E-2</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.1104348</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.12877060000000001</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.11408799999999999</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.1052148</v>
-      </c>
-      <c r="E32" s="3">
-        <v>9.9363499999999993E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.1114493</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.13079109999999999</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.11615109999999999</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.10739219999999999</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.1016696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.1124638</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.1328609</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.11827120000000001</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.10962810000000001</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.104033</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0.1134783</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.1349774</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.1204446</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.1119187</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.106449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>0.11449280000000001</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.13713810000000001</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.1226681</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.11426</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.10891339999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0.1155072</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.13934079999999999</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.1249387</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.1166484</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.1114223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0.11652170000000001</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.14158319999999999</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.12725339999999999</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.11908050000000001</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.1139722</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.11753619999999999</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.1438634</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.12960949999999999</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.1215533</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.11655989999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0.11855069999999999</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.14617930000000001</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.1320045</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.1240638</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.1191823</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0.1195652</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.14852899999999999</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.1344359</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.12660950000000001</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.12183670000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0.1205797</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.15091070000000001</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.13690150000000001</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.12918769999999999</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.12452050000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>0.1215942</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.15332280000000001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.1393991</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.1317962</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.1272316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>0.1226087</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.1557636</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.14192689999999999</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.134433</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.12996769999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>0.1236232</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.15823180000000001</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.1444829</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.137096</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.13272700000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0.1246377</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.1607257</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.14706540000000001</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.1397833</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.13550760000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0.12565219999999999</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.16324420000000001</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.1496729</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.1424935</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.13830790000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>0.12666669999999999</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.16578590000000001</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.15230379999999999</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.14522489999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.14112659999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0.12768119999999999</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0.16834959999999999</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.1549566</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.147976</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.14396200000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0.1286957</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.17093430000000001</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.1576303</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.1507455</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.1468132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0.12971009999999999</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.17353879999999999</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0.1603233</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.15353220000000001</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.1496787</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0.1307246</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.17616219999999999</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.1630347</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.156335</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.15255779999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0.1317391</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0.1788034</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.1657633</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.15915280000000001</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.15544930000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>0.1327536</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.1814616</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.1685082</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.16198460000000001</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.1583524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0.1337681</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0.18413599999999999</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.17126839999999999</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.16482939999999999</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.1612661</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0.1347826</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.18682579999999999</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.174043</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.16768659999999999</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.1641899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>0.1357971</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0.18953</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.17683119999999999</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.17055519999999999</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.16712289999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>0.13681160000000001</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0.19224820000000001</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.17963229999999999</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.1734347</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.17006450000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>0.13782610000000001</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0.19497970000000001</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.18244550000000001</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.17632410000000001</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0.17301430000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0.13884060000000001</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0.1977237</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.18527009999999999</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.1792231</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.1759714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>0.13985510000000001</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.20047970000000001</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.18810550000000001</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.18213090000000001</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0.1789356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0.14086960000000001</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.20324710000000001</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.19095119999999999</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.18504709999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.18190619999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>0.14188410000000001</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0.20602529999999999</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.1938066</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.1879711</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0.18488289999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>0.14289859999999999</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.208814</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.19667119999999999</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.1909024</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.18786530000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>0.14391300000000001</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.21161240000000001</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.19954430000000001</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.1938407</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.19085289999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>0.14492749999999999</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.21442040000000001</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.20242569999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.1967855</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.1938455</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>0.14594199999999999</v>
-      </c>
-      <c r="B67" s="3">
-        <v>0.21723729999999999</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.20531479999999999</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.19973640000000001</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0.19684270000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>0.14695649999999999</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0.2200628</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.20821139999999999</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0.20269309999999999</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.1998442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>0.14797099999999999</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0.2228965</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.21111489999999999</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.20565510000000001</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.20284969999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>0.14898549999999999</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.2257382</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.21402499999999999</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0.20862230000000001</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0.20585909999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>0.15</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0.22858719999999999</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.21694140000000001</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0.21159430000000001</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0.2088719</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
